--- a/Energy community potential model/_assumptions.xlsx
+++ b/Energy community potential model/_assumptions.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Energy-community-potential-model\Energy community potential model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628042FC-A058-4824-8F20-96B957662EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1E6A4A-D38B-44BB-BF21-EC70D6897FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7889CB36-7083-4D16-B0FE-16DC7F037511}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{7889CB36-7083-4D16-B0FE-16DC7F037511}"/>
   </bookViews>
   <sheets>
     <sheet name="global_assumptions" sheetId="6" r:id="rId1"/>
     <sheet name="behavioral_variables" sheetId="8" r:id="rId2"/>
     <sheet name="factor_loadings" sheetId="4" r:id="rId3"/>
-    <sheet name="source_data" sheetId="2" r:id="rId4"/>
-    <sheet name="sources" sheetId="3" r:id="rId5"/>
-    <sheet name="regressionAnalysisWeights" sheetId="5" r:id="rId6"/>
+    <sheet name="correlation_matrix" sheetId="9" r:id="rId4"/>
+    <sheet name="source_data" sheetId="2" r:id="rId5"/>
+    <sheet name="sources" sheetId="3" r:id="rId6"/>
+    <sheet name="regressionAnalysisWeights" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="110">
   <si>
     <t>Parameter</t>
   </si>
@@ -394,12 +395,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -414,10 +421,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0C4BD5-7A03-4979-9B24-44A967EC7A8F}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -845,7 +853,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EDA63B-8F45-4FF0-9A5F-7ED4FA8CF17E}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1506,6 +1514,157 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89132D8-0BA9-4425-B509-CC7F5584808F}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>0.42</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <v>0.47</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5">
+        <v>0.43</v>
+      </c>
+      <c r="C5">
+        <v>0.23</v>
+      </c>
+      <c r="D5">
+        <v>0.26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.4</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2366E1BF-C2F7-4663-8D71-BD7975399B57}">
   <dimension ref="A1:J18"/>
   <sheetViews>
@@ -2060,7 +2219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C237FD6B-E6B1-4A3E-AEC6-1B0A088B4EBA}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -2200,7 +2359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F64D8631-75B4-44F4-A1D9-F89D31ED0FA6}">
   <dimension ref="A1:D19"/>
   <sheetViews>
